--- a/Sondage.xlsx
+++ b/Sondage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyprien\SAE-Sondage-P-riode-A-2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED5D792-7EA8-40D2-81BB-18AAE4454806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ECA084-58C2-4FAD-8076-9D0AF8380627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{43CB670D-D167-47AB-9DFA-18A34908D1FE}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{43CB670D-D167-47AB-9DFA-18A34908D1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Nom</t>
   </si>
@@ -97,13 +97,46 @@
   </si>
   <si>
     <t>Code Postal</t>
+  </si>
+  <si>
+    <t>MEJAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprien </t>
+  </si>
+  <si>
+    <t>WAHADA</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>4 avenue grand riz</t>
+  </si>
+  <si>
+    <t>10 rue barbichette</t>
+  </si>
+  <si>
+    <t>4 ter, rue de l'égo</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Province</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +166,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -203,7 +242,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -234,6 +273,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,19 +593,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F509752-68A4-405B-B092-435CA9D6CF41}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -681,6 +724,165 @@
         <v>6254</v>
       </c>
     </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="12">
+        <v>37939</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1">
+        <v>75010</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>25957</v>
+      </c>
+      <c r="J3">
+        <v>25901</v>
+      </c>
+      <c r="K3">
+        <v>13721</v>
+      </c>
+      <c r="L3" s="13">
+        <v>25412</v>
+      </c>
+      <c r="M3">
+        <v>21514</v>
+      </c>
+      <c r="N3">
+        <v>21516</v>
+      </c>
+      <c r="O3">
+        <v>21522</v>
+      </c>
+      <c r="P3">
+        <v>36041</v>
+      </c>
+      <c r="Q3">
+        <v>6101</v>
+      </c>
+      <c r="R3">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="12">
+        <v>36526</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>92000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>9532</v>
+      </c>
+      <c r="J4">
+        <v>38402</v>
+      </c>
+      <c r="K4">
+        <v>25229</v>
+      </c>
+      <c r="L4">
+        <v>25593</v>
+      </c>
+      <c r="M4">
+        <v>25594</v>
+      </c>
+      <c r="N4">
+        <v>32028</v>
+      </c>
+      <c r="O4">
+        <v>32136</v>
+      </c>
+      <c r="P4">
+        <v>6105</v>
+      </c>
+      <c r="Q4">
+        <v>6116</v>
+      </c>
+      <c r="R4">
+        <v>21506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12">
+        <v>37959</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>75013</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>7352</v>
+      </c>
+      <c r="J5">
+        <v>7116</v>
+      </c>
+      <c r="K5" s="13">
+        <v>20917</v>
+      </c>
+      <c r="L5">
+        <v>17100</v>
+      </c>
+      <c r="M5">
+        <v>11109</v>
+      </c>
+      <c r="N5">
+        <v>21508</v>
+      </c>
+      <c r="O5">
+        <v>21509</v>
+      </c>
+      <c r="P5">
+        <v>25957</v>
+      </c>
+      <c r="Q5">
+        <v>25901</v>
+      </c>
+      <c r="R5">
+        <v>13721</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
